--- a/data/trans_orig/P55$amigo-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55$amigo-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4008</v>
+        <v>3960</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01841350297580124</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09592235266481887</v>
+        <v>0.09475918082695267</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>4500</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9712</v>
+        <v>9344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06650894438818573</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02490925213976726</v>
+        <v>0.02466507376660365</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1435399066950619</v>
+        <v>0.1380964344504148</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>5269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1889</v>
+        <v>1746</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11012</v>
+        <v>11290</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04814679685234998</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01726407030010866</v>
+        <v>0.01594965249094401</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.100616143442127</v>
+        <v>0.103157227377541</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3912</v>
+        <v>4284</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01999935556370181</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09362621936671059</v>
+        <v>0.1025334556832552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6530</v>
+        <v>5633</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02754518417077651</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09650618234995209</v>
+        <v>0.0832535876061183</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -857,19 +857,19 @@
         <v>2699</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7215</v>
+        <v>7239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02466429537769523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00753429796291185</v>
+        <v>0.007546250855740513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06592474791571883</v>
+        <v>0.06614440729999674</v>
       </c>
     </row>
     <row r="6">
@@ -933,19 +933,19 @@
         <v>7122</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3401</v>
+        <v>3026</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13459</v>
+        <v>13464</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1704455276415239</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08140052717760274</v>
+        <v>0.07242563231139161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3220995032866374</v>
+        <v>0.3222233557702535</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -954,19 +954,19 @@
         <v>13848</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8110</v>
+        <v>8294</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20728</v>
+        <v>20468</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2046734488901428</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1198657674622</v>
+        <v>0.1225854526145482</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3063442852415013</v>
+        <v>0.3025109382393422</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -975,19 +975,19 @@
         <v>20970</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13724</v>
+        <v>13566</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29773</v>
+        <v>30409</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1916057210274712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1254007731037369</v>
+        <v>0.1239495121121392</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2720316397842769</v>
+        <v>0.2778491143585088</v>
       </c>
     </row>
     <row r="8">
@@ -1004,19 +1004,19 @@
         <v>5445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2000</v>
+        <v>2048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11689</v>
+        <v>11297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1303099011890782</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04786525354772707</v>
+        <v>0.04902243975747366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2797395059053247</v>
+        <v>0.2703708342687664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1025,19 +1025,19 @@
         <v>10439</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5632</v>
+        <v>5646</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17320</v>
+        <v>17116</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1542859680689198</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08323842607334135</v>
+        <v>0.08344543604612574</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2559761279444046</v>
+        <v>0.2529703346195596</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1046,19 +1046,19 @@
         <v>15884</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9981</v>
+        <v>9198</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24574</v>
+        <v>24718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.14513225070095</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09119521649843722</v>
+        <v>0.08404240021295116</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2245318037142524</v>
+        <v>0.2258513160879331</v>
       </c>
     </row>
     <row r="9">
@@ -1075,19 +1075,19 @@
         <v>3540</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9695</v>
+        <v>9318</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08470987035406188</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02006202392741905</v>
+        <v>0.02002843564685087</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2320219502190039</v>
+        <v>0.2230086340636893</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1096,19 +1096,19 @@
         <v>6261</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2716</v>
+        <v>2753</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11711</v>
+        <v>12395</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09252764201108755</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04013465034099827</v>
+        <v>0.04068920590774831</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.173081518104328</v>
+        <v>0.1831890490167363</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -1117,19 +1117,19 @@
         <v>9800</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5315</v>
+        <v>4627</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17339</v>
+        <v>16751</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08954292927424144</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04856367457535762</v>
+        <v>0.04228111874348986</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1584225778986807</v>
+        <v>0.1530538661078697</v>
       </c>
     </row>
     <row r="10">
@@ -1193,19 +1193,19 @@
         <v>22399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16390</v>
+        <v>15992</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29611</v>
+        <v>28477</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5360575569286135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3922374271957076</v>
+        <v>0.382709398789212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7086409798289591</v>
+        <v>0.6815238535669482</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -1214,19 +1214,19 @@
         <v>16791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10500</v>
+        <v>10551</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24707</v>
+        <v>24361</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2481649489473152</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1551888523354458</v>
+        <v>0.1559318219709804</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3651586832301689</v>
+        <v>0.3600447721271626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -1235,19 +1235,19 @@
         <v>39190</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29838</v>
+        <v>30043</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49136</v>
+        <v>49273</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3580782044864962</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2726281528185414</v>
+        <v>0.2745057275091276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4489515992117122</v>
+        <v>0.4502055059313144</v>
       </c>
     </row>
     <row r="12">
@@ -1264,19 +1264,19 @@
         <v>2730</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6889</v>
+        <v>6945</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06533510149234097</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01897588869126775</v>
+        <v>0.01922157266987225</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1648657090330786</v>
+        <v>0.1662000418053011</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1285,19 +1285,19 @@
         <v>15785</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10164</v>
+        <v>9992</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23210</v>
+        <v>23090</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2333027409138914</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1502122356098849</v>
+        <v>0.147677056157869</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3430278094938815</v>
+        <v>0.3412662201535785</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -1306,19 +1306,19 @@
         <v>18515</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12083</v>
+        <v>12003</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27303</v>
+        <v>27101</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1691751128948587</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1104024743361273</v>
+        <v>0.109671606660053</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2494658319987489</v>
+        <v>0.2476244658327799</v>
       </c>
     </row>
     <row r="13">
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5081</v>
+        <v>6923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01187318763875522</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05992337283978407</v>
+        <v>0.0816406691527277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5841</v>
+        <v>5871</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007160470791345694</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03577551766174681</v>
+        <v>0.03595952938904493</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6883</v>
+        <v>7786</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008771436079896718</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02774954761193678</v>
+        <v>0.03138824499351494</v>
       </c>
     </row>
     <row r="15">
@@ -1470,19 +1470,19 @@
         <v>7783</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3405</v>
+        <v>3365</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15775</v>
+        <v>16258</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04766952869023986</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02085423769794739</v>
+        <v>0.02061100409761161</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09662151130152122</v>
+        <v>0.09958450343368723</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>7</v>
@@ -1491,19 +1491,19 @@
         <v>7783</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3329</v>
+        <v>3342</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>15246</v>
+        <v>14487</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03137447882239655</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0134192276632072</v>
+        <v>0.01347315223390301</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06146298033418391</v>
+        <v>0.05840043058871268</v>
       </c>
     </row>
     <row r="16">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5998</v>
+        <v>5626</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006838621139812092</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03673979348006052</v>
+        <v>0.03446275383488195</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5212</v>
+        <v>6554</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004500950188109532</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0210123436852437</v>
+        <v>0.02642271236556049</v>
       </c>
     </row>
     <row r="17">
@@ -1583,19 +1583,19 @@
         <v>17256</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10851</v>
+        <v>10821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25809</v>
+        <v>25232</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2035049172489378</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1279673302204632</v>
+        <v>0.1276107616281564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3043676457608498</v>
+        <v>0.2975663445573173</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -1604,19 +1604,19 @@
         <v>45207</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34150</v>
+        <v>34216</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58785</v>
+        <v>57564</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2768994766857756</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.209173712567122</v>
+        <v>0.2095772155160832</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3600648083767894</v>
+        <v>0.3525858049650448</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>57</v>
@@ -1625,19 +1625,19 @@
         <v>62463</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48784</v>
+        <v>49847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77073</v>
+        <v>77862</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2518107451855515</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1966654635564363</v>
+        <v>0.200948875673633</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.310708953453099</v>
+        <v>0.3138880163881418</v>
       </c>
     </row>
     <row r="18">
@@ -1654,19 +1654,19 @@
         <v>14077</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8159</v>
+        <v>8336</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21764</v>
+        <v>21834</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1660196076179291</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0962230749059611</v>
+        <v>0.09831324023337655</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2566730668525348</v>
+        <v>0.2574930816733271</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -1675,19 +1675,19 @@
         <v>59637</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47407</v>
+        <v>47122</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72628</v>
+        <v>73619</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3652841823810231</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2903759880503141</v>
+        <v>0.2886304504072035</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4448549922475958</v>
+        <v>0.4509261664013587</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>68</v>
@@ -1696,19 +1696,19 @@
         <v>73715</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>59112</v>
+        <v>59957</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>90453</v>
+        <v>89566</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.297168841787693</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2382995265713584</v>
+        <v>0.2417066545845214</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3646482524092129</v>
+        <v>0.3610713360639405</v>
       </c>
     </row>
     <row r="19">
@@ -1725,19 +1725,19 @@
         <v>2895</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7872</v>
+        <v>7904</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.034139143601978</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01071914879391695</v>
+        <v>0.01075151795273983</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09283093209158508</v>
+        <v>0.0932120908425752</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1746,19 +1746,19 @@
         <v>8952</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3530</v>
+        <v>4196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16930</v>
+        <v>16468</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05483114943864043</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02161960707313736</v>
+        <v>0.0256986630407673</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.103699024444818</v>
+        <v>0.1008700775545765</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1767,19 +1767,19 @@
         <v>11847</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6042</v>
+        <v>6521</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20962</v>
+        <v>20773</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04775792517487391</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02435598658857124</v>
+        <v>0.02628924822520413</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08450533970171935</v>
+        <v>0.08374192140468033</v>
       </c>
     </row>
     <row r="20">
@@ -1843,19 +1843,19 @@
         <v>39186</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30702</v>
+        <v>31253</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48296</v>
+        <v>48368</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4621264973757153</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3620722428579561</v>
+        <v>0.3685719239837636</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5695631476074692</v>
+        <v>0.5704217619014943</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -1864,19 +1864,19 @@
         <v>8132</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3498</v>
+        <v>3444</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16184</v>
+        <v>15338</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04980825142046982</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02142347486452243</v>
+        <v>0.02109252954555185</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09912995766288775</v>
+        <v>0.09394999458288442</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>49</v>
@@ -1885,19 +1885,19 @@
         <v>47317</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>35838</v>
+        <v>36151</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>59049</v>
+        <v>60982</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1907525100247728</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1444756584685297</v>
+        <v>0.1457359964709615</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2380490527541674</v>
+        <v>0.2458397498261708</v>
       </c>
     </row>
     <row r="22">
@@ -1914,19 +1914,19 @@
         <v>12280</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7120</v>
+        <v>7148</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20125</v>
+        <v>19438</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1448183711319649</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08396321429673863</v>
+        <v>0.08430173649783704</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2373413233681817</v>
+        <v>0.2292391563264558</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -1935,19 +1935,19 @@
         <v>34609</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23690</v>
+        <v>24520</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45838</v>
+        <v>46868</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2119850013379639</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1451050357301554</v>
+        <v>0.1501890832757696</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2807612296804823</v>
+        <v>0.2870693921988059</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -1956,19 +1956,19 @@
         <v>46889</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35290</v>
+        <v>34390</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58815</v>
+        <v>60813</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1890251857338748</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1422680682455141</v>
+        <v>0.1386389686506824</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.23710387928672</v>
+        <v>0.2451568978295156</v>
       </c>
     </row>
     <row r="23">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5811</v>
+        <v>4739</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007149111040022676</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0355947323390523</v>
+        <v>0.02902423793487782</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5939</v>
+        <v>5681</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004705304186698981</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02394209254305011</v>
+        <v>0.02290271924328446</v>
       </c>
     </row>
     <row r="24">
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6527</v>
+        <v>5643</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01403220032285313</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05156814449601629</v>
+        <v>0.04458187618541827</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -2073,19 +2073,19 @@
         <v>5669</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11569</v>
+        <v>11614</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02454964311219122</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009226009984120122</v>
+        <v>0.009072933232356428</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05010127700810785</v>
+        <v>0.05029425240250963</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>8</v>
@@ -2094,19 +2094,19 @@
         <v>7445</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3427</v>
+        <v>3256</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13913</v>
+        <v>14253</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02082578960281061</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.00958602821989999</v>
+        <v>0.009108090189088055</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03891674917973339</v>
+        <v>0.03986961977275038</v>
       </c>
     </row>
     <row r="25">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006601954204140626</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2144,19 +2144,19 @@
         <v>9646</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4411</v>
+        <v>4599</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18064</v>
+        <v>17041</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04177307216011531</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01910310463556389</v>
+        <v>0.01991670491842906</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07822511526908539</v>
+        <v>0.0737946686753128</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2165,19 +2165,19 @@
         <v>10482</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5251</v>
+        <v>4675</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18211</v>
+        <v>18213</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02932022657278614</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01468680890088219</v>
+        <v>0.01307648163711771</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0509392718522156</v>
+        <v>0.05094618404394512</v>
       </c>
     </row>
     <row r="26">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5547</v>
+        <v>5621</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004834897130918606</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02402147414552642</v>
+        <v>0.02433944046343429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6491</v>
+        <v>5641</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00312303151785178</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01815605450265737</v>
+        <v>0.01577907413969191</v>
       </c>
     </row>
     <row r="27">
@@ -2257,19 +2257,19 @@
         <v>24378</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15952</v>
+        <v>17321</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>33060</v>
+        <v>35325</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1925917367962077</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1260247094687757</v>
+        <v>0.1368441615729329</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2611803867869297</v>
+        <v>0.2790742133208688</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>54</v>
@@ -2278,19 +2278,19 @@
         <v>59055</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46675</v>
+        <v>45953</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>74574</v>
+        <v>73648</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2557371658920687</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2021249972789979</v>
+        <v>0.1989970118154025</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3229410421528258</v>
+        <v>0.3189315091687445</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>79</v>
@@ -2299,19 +2299,19 @@
         <v>83433</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>67880</v>
+        <v>68901</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>100135</v>
+        <v>101870</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2333796087890873</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1898722202856415</v>
+        <v>0.1927290954218062</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2800982219981317</v>
+        <v>0.2849507622718641</v>
       </c>
     </row>
     <row r="28">
@@ -2328,19 +2328,19 @@
         <v>19522</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11856</v>
+        <v>12479</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28205</v>
+        <v>28676</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1542315354605209</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09366357930322894</v>
+        <v>0.09858490516230982</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2228291236217313</v>
+        <v>0.226546663000233</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>63</v>
@@ -2349,19 +2349,19 @@
         <v>70076</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55566</v>
+        <v>56317</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>84866</v>
+        <v>84259</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3034614582956775</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2406246001620983</v>
+        <v>0.2438784623876211</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3675083390692294</v>
+        <v>0.364882012047018</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>84</v>
@@ -2370,19 +2370,19 @@
         <v>89598</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>74327</v>
+        <v>74223</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>106717</v>
+        <v>108590</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.250624434792432</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2079075683970177</v>
+        <v>0.207616581250103</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2985094560080115</v>
+        <v>0.3037472652663393</v>
       </c>
     </row>
     <row r="29">
@@ -2399,19 +2399,19 @@
         <v>6434</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05083296261149261</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>15</v>
@@ -2420,19 +2420,19 @@
         <v>15212</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06587626594301266</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -2441,19 +2441,19 @@
         <v>21647</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06054996571720619</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
     </row>
     <row r="30">
@@ -2517,19 +2517,19 @@
         <v>61584</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>50517</v>
+        <v>49719</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>72403</v>
+        <v>73993</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4865317572290724</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3990990758796476</v>
+        <v>0.3927919396533059</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.572002725873816</v>
+        <v>0.5845679426895661</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>25</v>
@@ -2538,19 +2538,19 @@
         <v>24923</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17244</v>
+        <v>16892</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>36156</v>
+        <v>35436</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1079269962717578</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07467356715150032</v>
+        <v>0.07314970349650399</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1565721811640426</v>
+        <v>0.1534534152063914</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>90</v>
@@ -2559,19 +2559,19 @@
         <v>86507</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>71883</v>
+        <v>71300</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>101326</v>
+        <v>103352</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.241977515585097</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2010695570804684</v>
+        <v>0.1994395537853819</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2834284296269888</v>
+        <v>0.2890948580625488</v>
       </c>
     </row>
     <row r="32">
@@ -2588,19 +2588,19 @@
         <v>15010</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1185802803852534</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>47</v>
@@ -2609,19 +2609,19 @@
         <v>50394</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38638</v>
+        <v>38243</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>64892</v>
+        <v>63953</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2182311240183027</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1673194096932216</v>
+        <v>0.1656097885989236</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.281011247141275</v>
+        <v>0.2769468120690114</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>63</v>
@@ -2630,19 +2630,19 @@
         <v>65404</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>52056</v>
+        <v>52795</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>81699</v>
+        <v>80466</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1829482942270295</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1456119879531752</v>
+        <v>0.1476788896274832</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2285275098359725</v>
+        <v>0.2250788044550181</v>
       </c>
     </row>
     <row r="33">
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>5894</v>
+        <v>4728</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.005054413126470394</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02552208458347649</v>
+        <v>0.0204749634065941</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5946</v>
+        <v>6974</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.003264824684121398</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01663254487118498</v>
+        <v>0.0195089540816229</v>
       </c>
     </row>
     <row r="34">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11328</v>
+        <v>12112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07368775122582658</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2492053400315198</v>
+        <v>0.2664602140487196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5313</v>
+        <v>6257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01427746592610889</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07621284039390774</v>
+        <v>0.08974767517065188</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -3006,19 +3006,19 @@
         <v>4345</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12616</v>
+        <v>13686</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03772518320299077</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008702617292453413</v>
+        <v>0.008832187326859288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1095369078248931</v>
+        <v>0.1188282287034888</v>
       </c>
     </row>
     <row r="5">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7266</v>
+        <v>6395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04658021333937715</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.159856312581058</v>
+        <v>0.1406831532725217</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -3056,19 +3056,19 @@
         <v>5890</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2046</v>
+        <v>2804</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11713</v>
+        <v>12451</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0844889465362114</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0293465467092097</v>
+        <v>0.04021622707934085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.168005344599737</v>
+        <v>0.1785995525113926</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -3077,19 +3077,19 @@
         <v>8008</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3075</v>
+        <v>3808</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14331</v>
+        <v>14254</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06952734091792732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02669739696484247</v>
+        <v>0.03306297470190446</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1244264094360368</v>
+        <v>0.1237597234058834</v>
       </c>
     </row>
     <row r="6">
@@ -3153,19 +3153,19 @@
         <v>6366</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2161</v>
+        <v>2809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12475</v>
+        <v>12136</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1400565001865143</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04754937001967726</v>
+        <v>0.06180428566098119</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2744450377742862</v>
+        <v>0.2669853907574096</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3174,19 +3174,19 @@
         <v>20217</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13004</v>
+        <v>13556</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28242</v>
+        <v>27933</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2899808349690056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1865223990649119</v>
+        <v>0.1944362614888603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4050976150663653</v>
+        <v>0.400666744947171</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -3195,19 +3195,19 @@
         <v>26583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18272</v>
+        <v>17934</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36551</v>
+        <v>36986</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2308095416959677</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.158649797852323</v>
+        <v>0.155715878598432</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3173530390744016</v>
+        <v>0.3211380396333854</v>
       </c>
     </row>
     <row r="8">
@@ -3224,19 +3224,19 @@
         <v>5167</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1960</v>
+        <v>1126</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10293</v>
+        <v>10374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1136624016332757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0431147910414406</v>
+        <v>0.02478052076857259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2264302833200405</v>
+        <v>0.2282186374933608</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -3245,19 +3245,19 @@
         <v>19725</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12557</v>
+        <v>13350</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27765</v>
+        <v>29004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2829354384204113</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1801118833137208</v>
+        <v>0.1914935754940638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3982478366964591</v>
+        <v>0.4160178075254631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -3266,19 +3266,19 @@
         <v>24892</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17458</v>
+        <v>16315</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34544</v>
+        <v>34857</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2161277082578557</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1515804787746531</v>
+        <v>0.1416527185457859</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2999346428012272</v>
+        <v>0.3026487256669599</v>
       </c>
     </row>
     <row r="9">
@@ -3295,19 +3295,19 @@
         <v>2976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7591</v>
+        <v>7866</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06546856708476233</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02061120012867059</v>
+        <v>0.02091523491563739</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1669892846657637</v>
+        <v>0.1730497528252925</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3316,19 +3316,19 @@
         <v>2942</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7806</v>
+        <v>8328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04219579060588726</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01346440670836607</v>
+        <v>0.01340117452028747</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1119616373344859</v>
+        <v>0.1194513725066621</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -3337,19 +3337,19 @@
         <v>5918</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1994</v>
+        <v>2853</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12013</v>
+        <v>12663</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05138095913978289</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01731024479020744</v>
+        <v>0.0247725816858602</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1043011152926844</v>
+        <v>0.1099451218343894</v>
       </c>
     </row>
     <row r="10">
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5224</v>
+        <v>4160</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02194939615999347</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1149293796695213</v>
+        <v>0.09152002766348113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5854</v>
+        <v>4969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008662864232369699</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05082759136250276</v>
+        <v>0.04314255997146499</v>
       </c>
     </row>
     <row r="11">
@@ -3429,19 +3429,19 @@
         <v>25532</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18458</v>
+        <v>17643</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32163</v>
+        <v>31744</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5616902558499589</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4060732082294557</v>
+        <v>0.3881257026111101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.707560794919662</v>
+        <v>0.698348804618636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -3450,19 +3450,19 @@
         <v>20243</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13407</v>
+        <v>12410</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28681</v>
+        <v>28011</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2903646398592434</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1923084358161628</v>
+        <v>0.1779984095702641</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4113897571297264</v>
+        <v>0.4017800204174281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -3471,19 +3471,19 @@
         <v>45775</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35485</v>
+        <v>34537</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56417</v>
+        <v>57239</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3974499080351286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3080976758919713</v>
+        <v>0.2998673523944502</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.489842696595208</v>
+        <v>0.496978579469089</v>
       </c>
     </row>
     <row r="12">
@@ -3500,19 +3500,19 @@
         <v>3199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8643</v>
+        <v>8570</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07037074681425219</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02082536934205735</v>
+        <v>0.02118242440799246</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.190143762783253</v>
+        <v>0.1885436512552635</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3521,19 +3521,19 @@
         <v>7655</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2985</v>
+        <v>3018</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14932</v>
+        <v>14582</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1098012519535716</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04281843918273128</v>
+        <v>0.04329149081005618</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2141786126161686</v>
+        <v>0.2091667163025241</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -3542,19 +3542,19 @@
         <v>10854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5733</v>
+        <v>5739</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19103</v>
+        <v>19189</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09423904194351811</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04977477903937629</v>
+        <v>0.04983084651770043</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1658634386115868</v>
+        <v>0.1666129316210294</v>
       </c>
     </row>
     <row r="13">
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5534</v>
+        <v>5414</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01054204674457091</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0549485165035688</v>
+        <v>0.05375378795326986</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7634</v>
+        <v>6659</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01045106480986319</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03638485136497815</v>
+        <v>0.03173616563466405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -3667,16 +3667,16 @@
         <v>1057</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8686</v>
+        <v>8711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01048057279987158</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003404285916420093</v>
+        <v>0.003402567559697885</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02797095089840717</v>
+        <v>0.02805104889971398</v>
       </c>
     </row>
     <row r="15">
@@ -3693,19 +3693,19 @@
         <v>9728</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5069</v>
+        <v>4344</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16825</v>
+        <v>17271</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09659635248164579</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05032679941920933</v>
+        <v>0.04313286909956651</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1670626897168642</v>
+        <v>0.1714842665797013</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>42</v>
@@ -3714,19 +3714,19 @@
         <v>45804</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>34133</v>
+        <v>33379</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>59488</v>
+        <v>58255</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2183104744031185</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1626835492647711</v>
+        <v>0.1590871258026672</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2835275610109267</v>
+        <v>0.2776498797751123</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>51</v>
@@ -3735,19 +3735,19 @@
         <v>55533</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>43512</v>
+        <v>43354</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>70112</v>
+        <v>70074</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1788351752123772</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1401240582974519</v>
+        <v>0.1396151862820779</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2257846811773503</v>
+        <v>0.2256615191615878</v>
       </c>
     </row>
     <row r="16">
@@ -3811,19 +3811,19 @@
         <v>27589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19002</v>
+        <v>18386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37302</v>
+        <v>36280</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2739429892561444</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1886725355342587</v>
+        <v>0.1825628943140809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3703796572065252</v>
+        <v>0.3602309103401363</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -3832,19 +3832,19 @@
         <v>69018</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54695</v>
+        <v>54835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83560</v>
+        <v>82591</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3289501559505438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2606839877022212</v>
+        <v>0.2613531793486559</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3982576884108718</v>
+        <v>0.3936397517546498</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -3853,19 +3853,19 @@
         <v>96607</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82310</v>
+        <v>79415</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>113517</v>
+        <v>112823</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3111097909327741</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2650661386433571</v>
+        <v>0.2557444498239514</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3655659511622617</v>
+        <v>0.3633313241216948</v>
       </c>
     </row>
     <row r="18">
@@ -3882,19 +3882,19 @@
         <v>21616</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14217</v>
+        <v>13570</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32459</v>
+        <v>31903</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2146327357076599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1411663216295026</v>
+        <v>0.1347382555325357</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3222981467966287</v>
+        <v>0.3167696419221745</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -3903,19 +3903,19 @@
         <v>61172</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48432</v>
+        <v>48962</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76281</v>
+        <v>76980</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2915546600206135</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2308333602974469</v>
+        <v>0.2333617866387884</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3635672291290805</v>
+        <v>0.3668960077979519</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -3924,19 +3924,19 @@
         <v>82788</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>67019</v>
+        <v>67858</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>99192</v>
+        <v>98381</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.266606725231744</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2158243147225153</v>
+        <v>0.2185252415092999</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3194323431991</v>
+        <v>0.3168221669743395</v>
       </c>
     </row>
     <row r="19">
@@ -3956,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11781</v>
+        <v>12214</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03292371006731497</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1169816990414363</v>
+        <v>0.121278693744588</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3974,19 +3974,19 @@
         <v>3420</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9080</v>
+        <v>10293</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01629848094738188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005053818722841589</v>
+        <v>0.005101836385013474</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0432756729846193</v>
+        <v>0.04905664048139181</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -3995,19 +3995,19 @@
         <v>6735</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2264</v>
+        <v>2254</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15528</v>
+        <v>16668</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02169050845629663</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007290517089925312</v>
+        <v>0.007258638465127683</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05000588192602093</v>
+        <v>0.0536771627643538</v>
       </c>
     </row>
     <row r="20">
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7617</v>
+        <v>7657</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01044074010429923</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03630211657122114</v>
+        <v>0.03649391871281273</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6595</v>
+        <v>6631</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007054515622838524</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0212368330786747</v>
+        <v>0.0213529302711781</v>
       </c>
     </row>
     <row r="21">
@@ -4087,19 +4087,19 @@
         <v>32112</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22036</v>
+        <v>23307</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43837</v>
+        <v>44197</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3188498465149975</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2188040534405187</v>
+        <v>0.2314269345506927</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.435272542111958</v>
+        <v>0.4388451759902099</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4108,19 +4108,19 @@
         <v>22978</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14269</v>
+        <v>15132</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32851</v>
+        <v>32837</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1095158641679839</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06800689112224598</v>
+        <v>0.07212024753347895</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1565730218166447</v>
+        <v>0.156505898393199</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>47</v>
@@ -4129,19 +4129,19 @@
         <v>55090</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40638</v>
+        <v>42140</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>70974</v>
+        <v>70514</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1774087384991086</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1308687312374444</v>
+        <v>0.135706523656156</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2285610010319127</v>
+        <v>0.2270785417602187</v>
       </c>
     </row>
     <row r="22">
@@ -4158,19 +4158,19 @@
         <v>16943</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10235</v>
+        <v>10373</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25874</v>
+        <v>25692</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1682303389707107</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1016313025825619</v>
+        <v>0.1029972524785407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2569067745415564</v>
+        <v>0.2551010144326112</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -4179,19 +4179,19 @@
         <v>39618</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29116</v>
+        <v>28226</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53377</v>
+        <v>52608</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1888253971503578</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1387709790090886</v>
+        <v>0.1345273006486168</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2544033943191554</v>
+        <v>0.2507395104374804</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -4200,19 +4200,19 @@
         <v>56561</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43179</v>
+        <v>42825</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71982</v>
+        <v>73706</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1821458428746689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1390515710561155</v>
+        <v>0.137910530413304</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2318081991995653</v>
+        <v>0.2373587359978189</v>
       </c>
     </row>
     <row r="23">
@@ -4280,19 +4280,19 @@
         <v>4411</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12815</v>
+        <v>13502</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03017931443159049</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007287621290187783</v>
+        <v>0.007113892233373203</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08767028858283824</v>
+        <v>0.09237633340162808</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -4301,19 +4301,19 @@
         <v>3188</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8675</v>
+        <v>8554</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01140539953778978</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003569326883002786</v>
+        <v>0.00352408567753906</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03103304459240482</v>
+        <v>0.0306026047777139</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -4322,19 +4322,19 @@
         <v>7599</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3196</v>
+        <v>3047</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17746</v>
+        <v>16801</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01785161576000225</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007507876268307861</v>
+        <v>0.00715843417598106</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04168666720652514</v>
+        <v>0.03946599752150104</v>
       </c>
     </row>
     <row r="25">
@@ -4351,19 +4351,19 @@
         <v>11846</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6333</v>
+        <v>6405</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20232</v>
+        <v>19858</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08104216204103554</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04332457320948793</v>
+        <v>0.04381812348180521</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1384186635564052</v>
+        <v>0.1358598957965791</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -4372,19 +4372,19 @@
         <v>51695</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40455</v>
+        <v>39427</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66616</v>
+        <v>66518</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1849343260308616</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1447247939660779</v>
+        <v>0.141046188633938</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2383135323022577</v>
+        <v>0.2379631019614067</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -4393,19 +4393,19 @@
         <v>63540</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49411</v>
+        <v>50132</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79211</v>
+        <v>80908</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1492618860171318</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1160705975750892</v>
+        <v>0.1177630973217805</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1860733383515584</v>
+        <v>0.190059709729097</v>
       </c>
     </row>
     <row r="26">
@@ -4469,19 +4469,19 @@
         <v>33956</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>23728</v>
+        <v>23707</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>45412</v>
+        <v>45501</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2323065098291709</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1623342955361214</v>
+        <v>0.1621881294445405</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.310686426394403</v>
+        <v>0.3112911963174954</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>83</v>
@@ -4490,19 +4490,19 @@
         <v>89235</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>73093</v>
+        <v>73799</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>107234</v>
+        <v>105405</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3192308988192137</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2614857081672226</v>
+        <v>0.2640111137412486</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3836210234831081</v>
+        <v>0.3770778320358577</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>115</v>
@@ -4511,19 +4511,19 @@
         <v>123190</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>104979</v>
+        <v>103211</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>139958</v>
+        <v>142669</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2893845183714922</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2466038256838472</v>
+        <v>0.2424513138837983</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3287731808288414</v>
+        <v>0.3351425038088994</v>
       </c>
     </row>
     <row r="28">
@@ -4540,19 +4540,19 @@
         <v>26783</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17606</v>
+        <v>17651</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38135</v>
+        <v>38661</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1832326350206044</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1204536448685069</v>
+        <v>0.1207601357499336</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2608977126061344</v>
+        <v>0.2645002553756535</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>74</v>
@@ -4561,19 +4561,19 @@
         <v>80897</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>64587</v>
+        <v>66146</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>97028</v>
+        <v>98151</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2894049579243422</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2310554300172905</v>
+        <v>0.2366337085839759</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3471124169100049</v>
+        <v>0.3511278375384752</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>97</v>
@@ -4582,19 +4582,19 @@
         <v>107680</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>90492</v>
+        <v>89947</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>128583</v>
+        <v>126573</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.252949601962435</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2125739849014827</v>
+        <v>0.2112936748866892</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3020532441493636</v>
+        <v>0.2973315645654429</v>
       </c>
     </row>
     <row r="29">
@@ -4611,19 +4611,19 @@
         <v>6292</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04304462128902921</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -4632,19 +4632,19 @@
         <v>6361</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2944</v>
+        <v>2280</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12969</v>
+        <v>13169</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02275747497758158</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01053305947733116</v>
+        <v>0.008157417747656203</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04639682697974521</v>
+        <v>0.04711162068453293</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -4653,19 +4653,19 @@
         <v>12653</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6420</v>
+        <v>6480</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22649</v>
+        <v>23012</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02972327472659582</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01508180253577991</v>
+        <v>0.01522285783921976</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05320471741105751</v>
+        <v>0.05405815566549491</v>
       </c>
     </row>
     <row r="30">
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5719</v>
+        <v>4975</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006825898475646566</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03912736418447687</v>
+        <v>0.03403735042515448</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7688</v>
+        <v>7637</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.007836736874087735</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02750283833313576</v>
+        <v>0.02732199425864222</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -4724,19 +4724,19 @@
         <v>3188</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>8924</v>
+        <v>10106</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.007489655142923693</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002356371368760211</v>
+        <v>0.002334612438357067</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02096400639354843</v>
+        <v>0.02373930922456422</v>
       </c>
     </row>
     <row r="31">
@@ -4753,19 +4753,19 @@
         <v>57644</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>45366</v>
+        <v>45161</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>70756</v>
+        <v>71663</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3943691896359791</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3103692095760891</v>
+        <v>0.3089694678916448</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4840744276628496</v>
+        <v>0.4902804845628937</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>40</v>
@@ -4774,19 +4774,19 @@
         <v>43221</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>31705</v>
+        <v>31767</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>57146</v>
+        <v>56176</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1546209804121778</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1134229944808263</v>
+        <v>0.1136438930899444</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2044377099238096</v>
+        <v>0.2009649326809232</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>90</v>
@@ -4795,19 +4795,19 @@
         <v>100865</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>84227</v>
+        <v>82601</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>120522</v>
+        <v>119601</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2369409868832407</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1978569495999382</v>
+        <v>0.194036284195201</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2831162736561953</v>
+        <v>0.2809535389459317</v>
       </c>
     </row>
     <row r="32">
@@ -4824,19 +4824,19 @@
         <v>20142</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12297</v>
+        <v>12905</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29563</v>
+        <v>30593</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1377976274710808</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08412915520851511</v>
+        <v>0.08828850016397888</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2022522276838096</v>
+        <v>0.2093004415535017</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>41</v>
@@ -4845,19 +4845,19 @@
         <v>47273</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>34303</v>
+        <v>34608</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62275</v>
+        <v>60147</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1691161497884396</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1227183054294035</v>
+        <v>0.1238066077226705</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.222786168626524</v>
+        <v>0.2151716576229178</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>60</v>
@@ -4866,19 +4866,19 @@
         <v>67415</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>51963</v>
+        <v>50978</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>84211</v>
+        <v>83270</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1583626139510876</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1220655360384813</v>
+        <v>0.1197526323796115</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.197818613237516</v>
+        <v>0.1956086428091333</v>
       </c>
     </row>
     <row r="33">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7346</v>
+        <v>7276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0287739621427278</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08943696747266933</v>
+        <v>0.08858360733613224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8438</v>
+        <v>8239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02082783855057189</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07435404078756913</v>
+        <v>0.07260777938486269</v>
       </c>
     </row>
     <row r="5">
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5162</v>
+        <v>4831</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03060156705352812</v>
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1647270342760107</v>
+        <v>0.1541480372884036</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9434</v>
+        <v>9410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03330549596296158</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1148509357289873</v>
+        <v>0.1145623404877086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -5289,19 +5289,19 @@
         <v>3695</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9988</v>
+        <v>9718</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03255878776920691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008438415311818059</v>
+        <v>0.00847739669263017</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0880138383449727</v>
+        <v>0.08564114337523106</v>
       </c>
     </row>
     <row r="6">
@@ -5365,19 +5365,19 @@
         <v>5869</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12084</v>
+        <v>11375</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1872749802572941</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08811595709993442</v>
+        <v>0.08817708537408915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.385599431931319</v>
+        <v>0.3629682803707003</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -5386,19 +5386,19 @@
         <v>14854</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8966</v>
+        <v>9119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23345</v>
+        <v>23131</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1808404871270531</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1091522654400243</v>
+        <v>0.1110192334438134</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2842082039107637</v>
+        <v>0.2816023697352992</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -5407,19 +5407,19 @@
         <v>20723</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13067</v>
+        <v>13435</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30173</v>
+        <v>29246</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1826174157756749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1151465623639664</v>
+        <v>0.1183897253491433</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2658925644144753</v>
+        <v>0.2577215326130471</v>
       </c>
     </row>
     <row r="8">
@@ -5436,19 +5436,19 @@
         <v>5031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10339</v>
+        <v>10051</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1605349409014795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06336231945611993</v>
+        <v>0.06356887364804327</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3299334050478482</v>
+        <v>0.3207260175225349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -5457,19 +5457,19 @@
         <v>16462</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10089</v>
+        <v>9791</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26399</v>
+        <v>25838</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.200416496346383</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1228327184475066</v>
+        <v>0.1192047524943587</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3213954163758</v>
+        <v>0.3145665890512845</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -5478,19 +5478,19 @@
         <v>21493</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13370</v>
+        <v>13640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31261</v>
+        <v>31359</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1894029359948165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1178182909705112</v>
+        <v>0.1201976385065586</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2754845762873449</v>
+        <v>0.2763423547007393</v>
       </c>
     </row>
     <row r="9">
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4484</v>
+        <v>6297</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03380263880336678</v>
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1430720991180973</v>
+        <v>0.2009259086976216</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -5528,19 +5528,19 @@
         <v>11393</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6114</v>
+        <v>5971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18353</v>
+        <v>18578</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1387082868969716</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07443165680467734</v>
+        <v>0.07269403809050808</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2234358487809749</v>
+        <v>0.2261760405167319</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -5549,19 +5549,19 @@
         <v>12453</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6876</v>
+        <v>6240</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20089</v>
+        <v>20026</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1097378850756264</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06059695639678196</v>
+        <v>0.0549922880337232</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1770288970252148</v>
+        <v>0.1764722276488112</v>
       </c>
     </row>
     <row r="10">
@@ -5625,19 +5625,19 @@
         <v>20270</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14857</v>
+        <v>14274</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25436</v>
+        <v>25174</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6468076773150869</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4740809615084885</v>
+        <v>0.455473566918843</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8116720682034382</v>
+        <v>0.8033116047941243</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -5646,19 +5646,19 @@
         <v>27489</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18885</v>
+        <v>19436</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36774</v>
+        <v>36921</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3346644329954498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2299132829052081</v>
+        <v>0.2366195144757824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.447704848189094</v>
+        <v>0.4494842501715214</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -5667,19 +5667,19 @@
         <v>47759</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38157</v>
+        <v>37188</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58792</v>
+        <v>59475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4208648938675797</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3362539808932862</v>
+        <v>0.3277120545750321</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5180938862245905</v>
+        <v>0.5241074030277466</v>
       </c>
     </row>
     <row r="12">
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6167</v>
+        <v>5268</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03312286405693531</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1967805342705222</v>
+        <v>0.1680966954480258</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -5717,19 +5717,19 @@
         <v>13594</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7964</v>
+        <v>7399</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21091</v>
+        <v>21690</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1654983690165603</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09696027882805835</v>
+        <v>0.0900802203315087</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2567683993371973</v>
+        <v>0.2640625436373396</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -5738,19 +5738,19 @@
         <v>14632</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8549</v>
+        <v>8466</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24104</v>
+        <v>23261</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.128941981065342</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07533431993137786</v>
+        <v>0.0746040712557324</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2124124316629661</v>
+        <v>0.2049859640426992</v>
       </c>
     </row>
     <row r="13">
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3669</v>
+        <v>4398</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009878808490309665</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04070846277387086</v>
+        <v>0.04880205844344213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -5839,19 +5839,19 @@
         <v>4865</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12252</v>
+        <v>13302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02626449527643363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006603676278462813</v>
+        <v>0.006614183072883682</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06614822901164981</v>
+        <v>0.07181652887588923</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -5860,19 +5860,19 @@
         <v>5755</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2119</v>
+        <v>1299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12926</v>
+        <v>12708</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02090140281525309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00769476071919411</v>
+        <v>0.004716947868943145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04694567398547458</v>
+        <v>0.04615198176154099</v>
       </c>
     </row>
     <row r="15">
@@ -5889,19 +5889,19 @@
         <v>4852</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9702</v>
+        <v>9753</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05384068020059093</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01829583904713366</v>
+        <v>0.01818978587574416</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1076565892124428</v>
+        <v>0.1082156320200951</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>12</v>
@@ -5910,19 +5910,19 @@
         <v>14817</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8507</v>
+        <v>8225</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>24983</v>
+        <v>24441</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0799956354966211</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04593082486095329</v>
+        <v>0.04440832577131056</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1348813637756963</v>
+        <v>0.1319554978774889</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>18</v>
@@ -5931,19 +5931,19 @@
         <v>19669</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>12415</v>
+        <v>12141</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>29954</v>
+        <v>30111</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0714350273633422</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0450891461377065</v>
+        <v>0.04409365146424388</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1087889568084718</v>
+        <v>0.1093565789871778</v>
       </c>
     </row>
     <row r="16">
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7126</v>
+        <v>6957</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007272556972423453</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03847346677467565</v>
+        <v>0.03755980872581224</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7250</v>
+        <v>6729</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004892223698548122</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02633209736649349</v>
+        <v>0.02443953460008823</v>
       </c>
     </row>
     <row r="17">
@@ -6023,19 +6023,19 @@
         <v>29514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21560</v>
+        <v>22006</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37887</v>
+        <v>38376</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3274899035316995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2392295236026489</v>
+        <v>0.2441850025791091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4203993262370069</v>
+        <v>0.4258238475714726</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -6044,19 +6044,19 @@
         <v>59909</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46501</v>
+        <v>46285</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74897</v>
+        <v>73266</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3234422408529392</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2510571578228988</v>
+        <v>0.2498873673862561</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4043641777995778</v>
+        <v>0.3955562368475204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -6065,19 +6065,19 @@
         <v>89422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73564</v>
+        <v>73217</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107308</v>
+        <v>107192</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3247670549715787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2671715216832366</v>
+        <v>0.2659107332429265</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3897240488180148</v>
+        <v>0.3893031244017531</v>
       </c>
     </row>
     <row r="18">
@@ -6094,19 +6094,19 @@
         <v>13617</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8126</v>
+        <v>8178</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20529</v>
+        <v>21260</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1510918734932085</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09017188954289193</v>
+        <v>0.09074443304356822</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2277962557201561</v>
+        <v>0.2359052181155562</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -6115,19 +6115,19 @@
         <v>54119</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40461</v>
+        <v>41853</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>69433</v>
+        <v>69437</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2921842339597255</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2184463913753927</v>
+        <v>0.2259588367469858</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3748638512483711</v>
+        <v>0.3748831485937985</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -6136,19 +6136,19 @@
         <v>67736</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54534</v>
+        <v>52931</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84913</v>
+        <v>83142</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2460042120524997</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1980591188041503</v>
+        <v>0.192234954201341</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3083897689393735</v>
+        <v>0.3019593766304172</v>
       </c>
     </row>
     <row r="19">
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3435</v>
+        <v>3955</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008805741013841019</v>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0381170075007164</v>
+        <v>0.04388921541145688</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -6186,19 +6186,19 @@
         <v>10765</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4988</v>
+        <v>5038</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18952</v>
+        <v>20549</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05811944180896057</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0269285892460042</v>
+        <v>0.02719864055770988</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1023218373922373</v>
+        <v>0.1109436270435283</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -6207,19 +6207,19 @@
         <v>11559</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5731</v>
+        <v>5623</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22997</v>
+        <v>21342</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04197889546389158</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02081263563076977</v>
+        <v>0.02042061413769097</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08351959445507513</v>
+        <v>0.07751098834822855</v>
       </c>
     </row>
     <row r="20">
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3620</v>
+        <v>4002</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008782414829247534</v>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04016415400885108</v>
+        <v>0.04440473178494598</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7479</v>
+        <v>7543</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01330525884458757</v>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04037672825033339</v>
+        <v>0.04072675269983336</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -6281,16 +6281,16 @@
         <v>776</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8859</v>
+        <v>8895</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01182491621639166</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00281979547257757</v>
+        <v>0.002817878568062566</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03217304418800072</v>
+        <v>0.03230379015064726</v>
       </c>
     </row>
     <row r="21">
@@ -6307,19 +6307,19 @@
         <v>33278</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25855</v>
+        <v>25186</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42715</v>
+        <v>41230</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.369254526131804</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2868931780992197</v>
+        <v>0.279465675241578</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4739725078005883</v>
+        <v>0.4574967279540944</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -6328,19 +6328,19 @@
         <v>18665</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9657</v>
+        <v>10175</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29360</v>
+        <v>30287</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1007734959946888</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05213810348741697</v>
+        <v>0.05493353923452571</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1585126966169943</v>
+        <v>0.1635181148423893</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -6349,19 +6349,19 @@
         <v>51943</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38631</v>
+        <v>40237</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66587</v>
+        <v>66627</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.188648273994089</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1403005627645857</v>
+        <v>0.1461346543719077</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2418330064445114</v>
+        <v>0.2419764263776233</v>
       </c>
     </row>
     <row r="22">
@@ -6378,19 +6378,19 @@
         <v>16583</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10674</v>
+        <v>11291</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24707</v>
+        <v>24243</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1840108969813449</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1184366410230748</v>
+        <v>0.1252861706525127</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2741487724748125</v>
+        <v>0.2690031044856139</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -6399,19 +6399,19 @@
         <v>28876</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19528</v>
+        <v>18800</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43826</v>
+        <v>42470</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.155899602787908</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1054310078836569</v>
+        <v>0.1014985333247214</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2366130472166927</v>
+        <v>0.2292929485514825</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -6420,19 +6420,19 @@
         <v>45459</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32140</v>
+        <v>33945</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>58248</v>
+        <v>59804</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1651005274687412</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1167271162536122</v>
+        <v>0.1232823302440304</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2115470193994292</v>
+        <v>0.2171971147900832</v>
       </c>
     </row>
     <row r="23">
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4161</v>
+        <v>4106</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007329956925798094</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03425978001441873</v>
+        <v>0.03380395760645717</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -6521,19 +6521,19 @@
         <v>7228</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2509</v>
+        <v>2472</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15007</v>
+        <v>14437</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02703546515635229</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009384709233459113</v>
+        <v>0.009245450066440087</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05613101291122055</v>
+        <v>0.05399922735104487</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -6542,19 +6542,19 @@
         <v>8119</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3562</v>
+        <v>3582</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16066</v>
+        <v>16601</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02087993295607754</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.009160072483910379</v>
+        <v>0.00921212496459263</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0413196162386994</v>
+        <v>0.04269545784466733</v>
       </c>
     </row>
     <row r="25">
@@ -6571,19 +6571,19 @@
         <v>5811</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2546</v>
+        <v>2430</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11310</v>
+        <v>11702</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04784470913172616</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02095926584904622</v>
+        <v>0.020006872367545</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09311811710643372</v>
+        <v>0.0963499990972659</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -6592,19 +6592,19 @@
         <v>17553</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9937</v>
+        <v>9908</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27638</v>
+        <v>28902</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06565127743669241</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03716803134611572</v>
+        <v>0.03705637376115754</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.103373137835541</v>
+        <v>0.1081007504671799</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -6613,19 +6613,19 @@
         <v>23364</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14408</v>
+        <v>14812</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36012</v>
+        <v>35603</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06008892891488883</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0370567464625828</v>
+        <v>0.03809458874525237</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09261951122288357</v>
+        <v>0.09156691168983618</v>
       </c>
     </row>
     <row r="26">
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7545</v>
+        <v>7993</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005038248780894764</v>
@@ -6667,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02821840820711234</v>
+        <v>0.02989655782540923</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6772</v>
+        <v>6770</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003464419664642608</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01741722001328332</v>
+        <v>0.01741097085552876</v>
       </c>
     </row>
     <row r="27">
@@ -6705,19 +6705,19 @@
         <v>35382</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>26212</v>
+        <v>26604</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>44248</v>
+        <v>44783</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2913127646686062</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2158130664458962</v>
+        <v>0.2190425914393711</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3643033143631941</v>
+        <v>0.368713043047995</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>59</v>
@@ -6726,19 +6726,19 @@
         <v>74763</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>59685</v>
+        <v>59683</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>93655</v>
+        <v>92419</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2796314783268767</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2232358702697837</v>
+        <v>0.223229096580025</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3502903037867434</v>
+        <v>0.3456704478220551</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>100</v>
@@ -6747,19 +6747,19 @@
         <v>110145</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>92972</v>
+        <v>90803</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>128875</v>
+        <v>128435</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2832804344144774</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2391127998660184</v>
+        <v>0.2335336905231195</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3314516226215171</v>
+        <v>0.3303181974015781</v>
       </c>
     </row>
     <row r="28">
@@ -6776,19 +6776,19 @@
         <v>18647</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12414</v>
+        <v>11535</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28442</v>
+        <v>26314</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1535282986107689</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1022095448318936</v>
+        <v>0.09497090901331036</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2341700921726541</v>
+        <v>0.2166472018746338</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -6797,19 +6797,19 @@
         <v>70581</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55378</v>
+        <v>57053</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>86949</v>
+        <v>88563</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2639909301953108</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2071271130239427</v>
+        <v>0.21339108741789</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3252089568597847</v>
+        <v>0.3312471231496483</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>76</v>
@@ -6818,19 +6818,19 @@
         <v>89229</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>70430</v>
+        <v>72307</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>108023</v>
+        <v>107990</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2294850307437334</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1811364473924327</v>
+        <v>0.1859656117652191</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2778226905414137</v>
+        <v>0.277737734022959</v>
       </c>
     </row>
     <row r="29">
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0152552416900882</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -6868,19 +6868,19 @@
         <v>22159</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08287831511978425</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>21</v>
@@ -6889,19 +6889,19 @@
         <v>24011</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06175447496768832</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
     </row>
     <row r="30">
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4034</v>
+        <v>4355</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006516446033549632</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03321187456050332</v>
+        <v>0.03586013215248002</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8752</v>
+        <v>8570</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009217556412059879</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03273552225661316</v>
+        <v>0.0320521608673674</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -6960,19 +6960,19 @@
         <v>3256</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9517</v>
+        <v>9253</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.008373793758649314</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002031541399152257</v>
+        <v>0.002022792464340378</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02447607399564251</v>
+        <v>0.02379782168283829</v>
       </c>
     </row>
     <row r="31">
@@ -6989,19 +6989,19 @@
         <v>53547</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>44394</v>
+        <v>44557</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>63662</v>
+        <v>64999</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4408665818086169</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3655085366249783</v>
+        <v>0.3668498396276057</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5241453321262012</v>
+        <v>0.5351558344725688</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>39</v>
@@ -7010,19 +7010,19 @@
         <v>46155</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>32388</v>
+        <v>34196</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>59845</v>
+        <v>60696</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1726305386341195</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1211395495811254</v>
+        <v>0.1278998762430598</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2238356991038389</v>
+        <v>0.2270185971844159</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>97</v>
@@ -7031,19 +7031,19 @@
         <v>99702</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>82783</v>
+        <v>81430</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>120662</v>
+        <v>119400</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2564211002231249</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2129083481841398</v>
+        <v>0.2094274602335464</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3103278473538845</v>
+        <v>0.3070816339598057</v>
       </c>
     </row>
     <row r="32">
@@ -7060,19 +7060,19 @@
         <v>17621</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1450799672884868</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>34</v>
@@ -7081,19 +7081,19 @@
         <v>42470</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1588485796188314</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -7102,19 +7102,19 @@
         <v>60091</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1545475925262416</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
     </row>
     <row r="33">
@@ -7420,19 +7420,19 @@
         <v>4586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1870</v>
+        <v>1978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8712</v>
+        <v>9361</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0832898696639017</v>
+        <v>0.08328986966390171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03396683618559248</v>
+        <v>0.03592852915293526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1582193598337106</v>
+        <v>0.1700049384738158</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -7441,19 +7441,19 @@
         <v>6632</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3768</v>
+        <v>3579</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11359</v>
+        <v>11110</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08236431895275034</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04679739641578011</v>
+        <v>0.04444971475949545</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1410712964048788</v>
+        <v>0.1379850848788666</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -7462,19 +7462,19 @@
         <v>11218</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7036</v>
+        <v>7058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17407</v>
+        <v>17397</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08274020702248251</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05189410140252997</v>
+        <v>0.0520547679330473</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1283862130794486</v>
+        <v>0.128312164843444</v>
       </c>
     </row>
     <row r="5">
@@ -7491,19 +7491,19 @@
         <v>3452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1438</v>
+        <v>1457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6964</v>
+        <v>7154</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06269232239959037</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02612103724330476</v>
+        <v>0.02646890792828115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1264845935459313</v>
+        <v>0.1299284511773267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -7512,19 +7512,19 @@
         <v>11428</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7164</v>
+        <v>7415</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16715</v>
+        <v>17048</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1419363987832103</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0889714529701504</v>
+        <v>0.09208887432573709</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2075960028718745</v>
+        <v>0.2117319216898303</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -7533,19 +7533,19 @@
         <v>14880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10050</v>
+        <v>9817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20966</v>
+        <v>20865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1097535021027096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07412742607761734</v>
+        <v>0.07240494178733776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1546420264914223</v>
+        <v>0.1538948244526321</v>
       </c>
     </row>
     <row r="6">
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3363</v>
+        <v>3521</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.008403223505665773</v>
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04176195152536362</v>
+        <v>0.04372909766128141</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3869</v>
+        <v>4011</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00499047537094339</v>
@@ -7608,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0285363047027739</v>
+        <v>0.02958179213734726</v>
       </c>
     </row>
     <row r="7">
@@ -7625,19 +7625,19 @@
         <v>20550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14977</v>
+        <v>15007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26733</v>
+        <v>26547</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3732200435942157</v>
+        <v>0.3732200435942158</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2720104554416861</v>
+        <v>0.2725506748417078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4855058218799935</v>
+        <v>0.4821231043645645</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -7646,19 +7646,19 @@
         <v>43430</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36691</v>
+        <v>36688</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49817</v>
+        <v>50243</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5393845537870056</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4556822851979063</v>
+        <v>0.4556533334451516</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6187092854255848</v>
+        <v>0.6239995033700377</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>110</v>
@@ -7667,19 +7667,19 @@
         <v>63980</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55428</v>
+        <v>54665</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73438</v>
+        <v>73070</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4719012098255891</v>
+        <v>0.4719012098255893</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4088183622879342</v>
+        <v>0.4031971965622322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.541657840417563</v>
+        <v>0.538943653510318</v>
       </c>
     </row>
     <row r="8">
@@ -7696,19 +7696,19 @@
         <v>8281</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4464</v>
+        <v>4539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14128</v>
+        <v>13928</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1504016653435293</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08106727324495924</v>
+        <v>0.08244009355306918</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2565848063818084</v>
+        <v>0.2529505966861593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -7717,19 +7717,19 @@
         <v>17344</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12338</v>
+        <v>12337</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23071</v>
+        <v>24141</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2154099169179488</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1532282139257221</v>
+        <v>0.1532257173496422</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.286535696854909</v>
+        <v>0.2998244970590421</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -7738,19 +7738,19 @@
         <v>25626</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>19251</v>
+        <v>19222</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33822</v>
+        <v>33713</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1890085259335748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1419895610381885</v>
+        <v>0.1417778109066109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2494631051507225</v>
+        <v>0.2486552928202183</v>
       </c>
     </row>
     <row r="9">
@@ -7767,19 +7767,19 @@
         <v>3876</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1574</v>
+        <v>1489</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8054</v>
+        <v>7726</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07039370513493576</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02858676066824395</v>
+        <v>0.02703607768041276</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1462628471006409</v>
+        <v>0.1403141075641494</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -7788,19 +7788,19 @@
         <v>3986</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1731</v>
+        <v>1704</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7990</v>
+        <v>8090</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04950438337921942</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02149463036265473</v>
+        <v>0.02115974878225822</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09923332379408926</v>
+        <v>0.100468841786794</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -7809,19 +7809,19 @@
         <v>7862</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4257</v>
+        <v>4451</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13094</v>
+        <v>12952</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0579880318040614</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03139703938170137</v>
+        <v>0.03282687671707785</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0965742914484627</v>
+        <v>0.09553373566195264</v>
       </c>
     </row>
     <row r="10">
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3914</v>
+        <v>3447</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01105539717006966</v>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07108865372235601</v>
+        <v>0.06259528409273889</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2853</v>
+        <v>2657</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007062005840459223</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03542806989948552</v>
+        <v>0.03300299586766563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4050</v>
+        <v>3638</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008683816661289555</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02986947000917728</v>
+        <v>0.02683542541228171</v>
       </c>
     </row>
     <row r="11">
@@ -7909,19 +7909,19 @@
         <v>28550</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23017</v>
+        <v>22593</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34756</v>
+        <v>34510</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5185084752354342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4180261888162781</v>
+        <v>0.4103148770774693</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6312125818768746</v>
+        <v>0.6267500138555676</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>36</v>
@@ -7930,19 +7930,19 @@
         <v>19644</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14224</v>
+        <v>14211</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25505</v>
+        <v>25432</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2439752398649275</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1766519263948049</v>
+        <v>0.1764910608075815</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3167576227547413</v>
+        <v>0.3158502378263258</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>78</v>
@@ -7951,19 +7951,19 @@
         <v>48195</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39668</v>
+        <v>40219</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57309</v>
+        <v>57029</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3554696903336428</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2925799695496221</v>
+        <v>0.2966415799004186</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4226923347794851</v>
+        <v>0.4206310808840997</v>
       </c>
     </row>
     <row r="12">
@@ -7980,19 +7980,19 @@
         <v>7525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4197</v>
+        <v>3740</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12290</v>
+        <v>12299</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1366684451222061</v>
+        <v>0.1366684451222062</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07622325266492275</v>
+        <v>0.06791602133099289</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2232019001477602</v>
+        <v>0.2233609877578704</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -8001,19 +8001,19 @@
         <v>10209</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6657</v>
+        <v>6534</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15368</v>
+        <v>15144</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.126796764348864</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08267530148200394</v>
+        <v>0.08115566788821675</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1908640467026758</v>
+        <v>0.1880824187014756</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -8022,19 +8022,19 @@
         <v>17735</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12080</v>
+        <v>12624</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>24399</v>
+        <v>24387</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1308058877671669</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08909935167436374</v>
+        <v>0.09311161768848301</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1799633600711798</v>
+        <v>0.1798736703987945</v>
       </c>
     </row>
     <row r="13">
@@ -8102,19 +8102,19 @@
         <v>2974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1097</v>
+        <v>1133</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6853</v>
+        <v>7045</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02607794575339702</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009618070427682089</v>
+        <v>0.00993667464716771</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06007902190986543</v>
+        <v>0.06176569837816401</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -8123,19 +8123,19 @@
         <v>12247</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7516</v>
+        <v>7622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19585</v>
+        <v>19163</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04425904579653913</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02716156102880008</v>
+        <v>0.02754226672521411</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07077396973905525</v>
+        <v>0.0692503446281876</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -8144,19 +8144,19 @@
         <v>15222</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9843</v>
+        <v>9953</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>23140</v>
+        <v>22486</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0389524813262229</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02518877729773827</v>
+        <v>0.02546966947911592</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05921378094944382</v>
+        <v>0.05754071396799244</v>
       </c>
     </row>
     <row r="15">
@@ -8173,19 +8173,19 @@
         <v>27284</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20496</v>
+        <v>20222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35166</v>
+        <v>35969</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2392112487762134</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1796974774854483</v>
+        <v>0.1772938048413183</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3083168202750922</v>
+        <v>0.3153510933894362</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>152</v>
@@ -8194,19 +8194,19 @@
         <v>75419</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>65460</v>
+        <v>64379</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>86672</v>
+        <v>86786</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2725438645749625</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2365543478513856</v>
+        <v>0.2326482645199482</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3132074013296549</v>
+        <v>0.3136203919210539</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>193</v>
@@ -8215,19 +8215,19 @@
         <v>102703</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>90290</v>
+        <v>90532</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>118853</v>
+        <v>116795</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2628149881989116</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.231049765757118</v>
+        <v>0.2316700227354482</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.304142447643396</v>
+        <v>0.2988762228530044</v>
       </c>
     </row>
     <row r="16">
@@ -8247,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3917</v>
+        <v>3534</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009053772833772631</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03434066501259386</v>
+        <v>0.03098345884450876</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -8265,19 +8265,19 @@
         <v>1718</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5321</v>
+        <v>5276</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.006209071883572713</v>
+        <v>0.006209071883572712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00180469952769971</v>
+        <v>0.001679451111663507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01922838031570793</v>
+        <v>0.01906775723337675</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -8286,19 +8286,19 @@
         <v>2751</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1028</v>
+        <v>1059</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5954</v>
+        <v>6210</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.007039362072570367</v>
+        <v>0.007039362072570368</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002631745911410984</v>
+        <v>0.002708757102256882</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01523542616666165</v>
+        <v>0.01589005058647061</v>
       </c>
     </row>
     <row r="17">
@@ -8315,19 +8315,19 @@
         <v>63897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>55128</v>
+        <v>55137</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>72136</v>
+        <v>72518</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5602105801038355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4833282497208388</v>
+        <v>0.4834095711505184</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6324479308576428</v>
+        <v>0.6357958609186</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>311</v>
@@ -8336,19 +8336,19 @@
         <v>162116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>149708</v>
+        <v>150380</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174300</v>
+        <v>173798</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5858421133080653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5410026047574682</v>
+        <v>0.5434301596450499</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6298728819377238</v>
+        <v>0.6280558860308553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>408</v>
@@ -8357,19 +8357,19 @@
         <v>226013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>211264</v>
+        <v>210116</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>241424</v>
+        <v>240576</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5783609717325532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5406180725973039</v>
+        <v>0.5376797993114451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6177977048980683</v>
+        <v>0.615627815603911</v>
       </c>
     </row>
     <row r="18">
@@ -8386,19 +8386,19 @@
         <v>10203</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6074</v>
+        <v>5997</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15788</v>
+        <v>15772</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08945123398925217</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05325746932832797</v>
+        <v>0.05258178544197082</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1384187533176053</v>
+        <v>0.1382822219296982</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>99</v>
@@ -8407,19 +8407,19 @@
         <v>54573</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>44397</v>
+        <v>45458</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63815</v>
+        <v>65283</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1972133418803085</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1604399185864084</v>
+        <v>0.1642710326093147</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2306105844601659</v>
+        <v>0.2359132482330652</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>116</v>
@@ -8428,19 +8428,19 @@
         <v>64776</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54389</v>
+        <v>53969</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>75758</v>
+        <v>76371</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1657605380552306</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1391796824920379</v>
+        <v>0.1381047719064916</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1938633145370579</v>
+        <v>0.1954305437807937</v>
       </c>
     </row>
     <row r="19">
@@ -8457,19 +8457,19 @@
         <v>5209</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2404</v>
+        <v>2272</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10828</v>
+        <v>10112</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04566766774012612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02108113701744059</v>
+        <v>0.01991545407534486</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09492894398384902</v>
+        <v>0.08865504343704704</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -8478,19 +8478,19 @@
         <v>12346</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7800</v>
+        <v>7478</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18135</v>
+        <v>18085</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04461340223280637</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02818532234810631</v>
+        <v>0.02702357207057337</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06553434204845378</v>
+        <v>0.06535247103083247</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -8499,19 +8499,19 @@
         <v>17554</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12287</v>
+        <v>12331</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24799</v>
+        <v>24377</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0449211134202564</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03144213235281467</v>
+        <v>0.03155408652137407</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06346112150667496</v>
+        <v>0.06238121884814657</v>
       </c>
     </row>
     <row r="20">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4733</v>
+        <v>4964</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0122308069615612</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04149314243822685</v>
+        <v>0.04352116662208706</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2512</v>
+        <v>2804</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001811599013034094</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.00907942377150495</v>
+        <v>0.01013146519976956</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -8570,19 +8570,19 @@
         <v>1896</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5564</v>
+        <v>5019</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004852680057486397</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001277287234975527</v>
+        <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01423794243527908</v>
+        <v>0.01284294695908383</v>
       </c>
     </row>
     <row r="21">
@@ -8599,19 +8599,19 @@
         <v>33205</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26351</v>
+        <v>25042</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42303</v>
+        <v>41220</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2911174127210572</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2310298705791439</v>
+        <v>0.2195501648137621</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3708860259473625</v>
+        <v>0.3613934344156828</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>46</v>
@@ -8620,19 +8620,19 @@
         <v>24541</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18808</v>
+        <v>18160</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>32431</v>
+        <v>32358</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08868497124103607</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06796571973680597</v>
+        <v>0.06562436824242228</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1171979556538879</v>
+        <v>0.1169323885863053</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>96</v>
@@ -8641,19 +8641,19 @@
         <v>57746</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>48522</v>
+        <v>47850</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>69218</v>
+        <v>68995</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1477694490255607</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1241660527990669</v>
+        <v>0.1224457425288582</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1771259579295383</v>
+        <v>0.1765575030371906</v>
       </c>
     </row>
     <row r="22">
@@ -8670,19 +8670,19 @@
         <v>19467</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13717</v>
+        <v>13465</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26999</v>
+        <v>26201</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1706722031418737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1202663269848689</v>
+        <v>0.1180505416627181</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2367078103369298</v>
+        <v>0.2297149514018304</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -8691,19 +8691,19 @@
         <v>55370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43799</v>
+        <v>45631</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65154</v>
+        <v>66793</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2000912348555197</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1582783505389116</v>
+        <v>0.1648960453304677</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2354490770157293</v>
+        <v>0.2413702372511999</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -8712,19 +8712,19 @@
         <v>74837</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63488</v>
+        <v>62759</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88534</v>
+        <v>87313</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1915046263405071</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1624631265227229</v>
+        <v>0.1605979757669447</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2265554903520806</v>
+        <v>0.223431263185039</v>
       </c>
     </row>
     <row r="23">
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3033</v>
+        <v>3367</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005259163718393221</v>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02659237091639158</v>
+        <v>0.02952348591730546</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4477</v>
+        <v>3947</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.002485072018060377</v>
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01618009731707047</v>
+        <v>0.01426430916310678</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3999</v>
+        <v>4435</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003294753303541127</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01023363866525864</v>
+        <v>0.01134914327868369</v>
       </c>
     </row>
     <row r="24">
@@ -8816,19 +8816,19 @@
         <v>7561</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3711</v>
+        <v>3928</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12360</v>
+        <v>12908</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04470500044449607</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02193996986406976</v>
+        <v>0.02322330016561047</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07308459109463471</v>
+        <v>0.07632530372055045</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -8837,19 +8837,19 @@
         <v>18879</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13118</v>
+        <v>12781</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26622</v>
+        <v>26355</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05284751924604276</v>
+        <v>0.05284751924604277</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03671899213613122</v>
+        <v>0.0357756019791508</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07452073276881319</v>
+        <v>0.07377283023099183</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>43</v>
@@ -8858,19 +8858,19 @@
         <v>26440</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19417</v>
+        <v>19121</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34945</v>
+        <v>36679</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05023131689209907</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03688981775041989</v>
+        <v>0.03632683435669062</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06639054004749415</v>
+        <v>0.06968325988480063</v>
       </c>
     </row>
     <row r="25">
@@ -8887,19 +8887,19 @@
         <v>30736</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23015</v>
+        <v>22033</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>39806</v>
+        <v>39439</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1817402275119254</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.136087446431692</v>
+        <v>0.1302821596602174</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2353682027443594</v>
+        <v>0.2331980904991981</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -8908,19 +8908,19 @@
         <v>86848</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>75350</v>
+        <v>75690</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99946</v>
+        <v>99827</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2431065017285929</v>
+        <v>0.243106501728593</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.210921982752649</v>
+        <v>0.2118736230973851</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2797732381955032</v>
+        <v>0.2794386144205389</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>219</v>
@@ -8929,19 +8929,19 @@
         <v>117584</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>103729</v>
+        <v>104247</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133082</v>
+        <v>132740</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2233894344461811</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.197067673563111</v>
+        <v>0.1980521916810823</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2528345012014759</v>
+        <v>0.2521834645006395</v>
       </c>
     </row>
     <row r="26">
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3630</v>
+        <v>3775</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.006106046027743921</v>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02146588247861857</v>
+        <v>0.02232347908182511</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -8979,19 +8979,19 @@
         <v>2395</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5702</v>
+        <v>5689</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.006703607452791165</v>
+        <v>0.006703607452791166</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002142378897556754</v>
+        <v>0.002120803539916081</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01596222520301485</v>
+        <v>0.01592381247920738</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -9000,19 +9000,19 @@
         <v>3427</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1390</v>
+        <v>1362</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7246</v>
+        <v>7393</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006511610155033918</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002641176424741509</v>
+        <v>0.002586900887548707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01376631796186274</v>
+        <v>0.01404527689109151</v>
       </c>
     </row>
     <row r="27">
@@ -9029,19 +9029,19 @@
         <v>84447</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>74159</v>
+        <v>74578</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>95344</v>
+        <v>95708</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.499330212652268</v>
+        <v>0.4993302126522681</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.438497839853246</v>
+        <v>0.4409759403827227</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5637618466524511</v>
+        <v>0.5659138741824152</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>392</v>
@@ -9050,19 +9050,19 @@
         <v>205546</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>190241</v>
+        <v>191994</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>218764</v>
+        <v>219844</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.5753711342695561</v>
+        <v>0.5753711342695562</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5325285231013044</v>
+        <v>0.5374346605038134</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6123705853640998</v>
+        <v>0.6153927874222012</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>518</v>
@@ -9071,19 +9071,19 @@
         <v>289993</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>271981</v>
+        <v>270523</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>308391</v>
+        <v>307327</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.5509390828393024</v>
+        <v>0.5509390828393023</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5167190147420645</v>
+        <v>0.5139491388266003</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5858914964958472</v>
+        <v>0.5838698396335664</v>
       </c>
     </row>
     <row r="28">
@@ -9100,19 +9100,19 @@
         <v>18484</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12726</v>
+        <v>12529</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25834</v>
+        <v>26442</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1092954717054696</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07524561766975402</v>
+        <v>0.07408302975443647</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1527519518303978</v>
+        <v>0.1563488933015401</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>129</v>
@@ -9121,19 +9121,19 @@
         <v>71918</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>60341</v>
+        <v>61004</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>83271</v>
+        <v>83854</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2013146325584255</v>
+        <v>0.2013146325584256</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1689077332369104</v>
+        <v>0.1707637678380646</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2330934075380414</v>
+        <v>0.2347275697385706</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>156</v>
@@ -9142,19 +9142,19 @@
         <v>90402</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>76300</v>
+        <v>77946</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>104597</v>
+        <v>104847</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1717487511525764</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1449569936755971</v>
+        <v>0.1480849779815934</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1987175985408176</v>
+        <v>0.1991915074670181</v>
       </c>
     </row>
     <row r="29">
@@ -9171,19 +9171,19 @@
         <v>9085</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5064</v>
+        <v>4907</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14478</v>
+        <v>14673</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05371796948435244</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0299424149634934</v>
+        <v>0.02901691699966226</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08560705232974312</v>
+        <v>0.08675985811115709</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -9192,19 +9192,19 @@
         <v>16332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11511</v>
+        <v>10986</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23461</v>
+        <v>23145</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04571577096654536</v>
+        <v>0.04571577096654537</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0322207882020415</v>
+        <v>0.03075173194792116</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06567140122014251</v>
+        <v>0.06478859836722661</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>44</v>
@@ -9213,19 +9213,19 @@
         <v>25416</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18392</v>
+        <v>19081</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34496</v>
+        <v>34181</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.04828688822267438</v>
+        <v>0.04828688822267437</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03494082235305049</v>
+        <v>0.03624994510954131</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06553657826236772</v>
+        <v>0.06493848511532305</v>
       </c>
     </row>
     <row r="30">
@@ -9242,19 +9242,19 @@
         <v>2004</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5614</v>
+        <v>5805</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01184811711346563</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003586094754581468</v>
+        <v>0.003521462410856426</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0331961678892946</v>
+        <v>0.03432187220979031</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -9266,16 +9266,16 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3821</v>
+        <v>3683</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.002994978002382266</v>
+        <v>0.002994978002382267</v>
       </c>
       <c r="O30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01069515855909445</v>
+        <v>0.0103102138959589</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -9284,19 +9284,19 @@
         <v>3074</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1155</v>
+        <v>1166</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7015</v>
+        <v>6764</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005839503627279523</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002194440389332638</v>
+        <v>0.002214902902415657</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01332688215071743</v>
+        <v>0.01285020252248054</v>
       </c>
     </row>
     <row r="31">
@@ -9313,19 +9313,19 @@
         <v>61755</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>51510</v>
+        <v>52804</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>72198</v>
+        <v>71710</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.365151380960757</v>
+        <v>0.3651513809607569</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3045718989463566</v>
+        <v>0.3122270312119403</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.426903613844181</v>
+        <v>0.4240163811490971</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>82</v>
@@ -9334,19 +9334,19 @@
         <v>44186</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>35597</v>
+        <v>35759</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>54001</v>
+        <v>54629</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.123685543040511</v>
+        <v>0.1236855430405111</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09964488477208756</v>
+        <v>0.1000966237408437</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1511605828903231</v>
+        <v>0.1529192559456574</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>174</v>
@@ -9355,19 +9355,19 @@
         <v>105940</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>92004</v>
+        <v>92766</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>120471</v>
+        <v>121380</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2012688448369939</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1747921471458637</v>
+        <v>0.1762399383945872</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.228874395752197</v>
+        <v>0.230601547911895</v>
       </c>
     </row>
     <row r="32">
@@ -9384,19 +9384,19 @@
         <v>26992</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19547</v>
+        <v>20108</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35539</v>
+        <v>36549</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1596012616834805</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1155790652399402</v>
+        <v>0.1188981221413272</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2101372031363208</v>
+        <v>0.216109920190449</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>117</v>
@@ -9405,19 +9405,19 @@
         <v>65579</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>54557</v>
+        <v>54933</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>77193</v>
+        <v>77224</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1835715366142479</v>
+        <v>0.183571536614248</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1527179646511128</v>
+        <v>0.1537697328716444</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2160821787154768</v>
+        <v>0.2161690298306127</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>159</v>
@@ -9426,19 +9426,19 @@
         <v>92571</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>79028</v>
+        <v>78420</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>106213</v>
+        <v>106855</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1758698547112674</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1501395177178928</v>
+        <v>0.1489857572178072</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2017870076288533</v>
+        <v>0.2030063131159186</v>
       </c>
     </row>
     <row r="33">
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.003546885516296832</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01806888447539782</v>
+        <v>0.01806465976304244</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1</v>
@@ -9479,16 +9479,16 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>3407</v>
+        <v>3209</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.001924966466271752</v>
+        <v>0.001924966466271753</v>
       </c>
       <c r="O33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.009538000018840637</v>
+        <v>0.008983718682240984</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>4551</v>
+        <v>4941</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.002446091260699701</v>
@@ -9509,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.008646118466413468</v>
+        <v>0.009386547249730596</v>
       </c>
     </row>
     <row r="34">
